--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gast-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gast-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.047331333333333</v>
+        <v>1.283312333333333</v>
       </c>
       <c r="H2">
-        <v>3.141994</v>
+        <v>3.849937</v>
       </c>
       <c r="I2">
-        <v>0.82544270426265</v>
+        <v>0.5028409016698769</v>
       </c>
       <c r="J2">
-        <v>0.82544270426265</v>
+        <v>0.502840901669877</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.8753804750266667</v>
+        <v>1.072618114446666</v>
       </c>
       <c r="R2">
-        <v>7.87842427524</v>
+        <v>9.653563030019999</v>
       </c>
       <c r="S2">
-        <v>0.82544270426265</v>
+        <v>0.5028409016698769</v>
       </c>
       <c r="T2">
-        <v>0.82544270426265</v>
+        <v>0.502840901669877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +581,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2214803333333333</v>
+        <v>1.047331333333333</v>
       </c>
       <c r="H3">
-        <v>0.6644409999999999</v>
+        <v>3.141994</v>
       </c>
       <c r="I3">
-        <v>0.17455729573735</v>
+        <v>0.4103763505743974</v>
       </c>
       <c r="J3">
-        <v>0.17455729573735</v>
+        <v>0.4103763505743974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,16 +626,78 @@
         <v>1</v>
       </c>
       <c r="Q3">
+        <v>0.8753804750266667</v>
+      </c>
+      <c r="R3">
+        <v>7.878424275240001</v>
+      </c>
+      <c r="S3">
+        <v>0.4103763505743974</v>
+      </c>
+      <c r="T3">
+        <v>0.4103763505743974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2214803333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.6644409999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.08678274775572555</v>
+      </c>
+      <c r="J4">
+        <v>0.08678274775572555</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.83582</v>
+      </c>
+      <c r="N4">
+        <v>2.50746</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>0.1851176922066667</v>
       </c>
-      <c r="R3">
+      <c r="R4">
         <v>1.66605922986</v>
       </c>
-      <c r="S3">
-        <v>0.17455729573735</v>
-      </c>
-      <c r="T3">
-        <v>0.17455729573735</v>
+      <c r="S4">
+        <v>0.08678274775572555</v>
+      </c>
+      <c r="T4">
+        <v>0.08678274775572555</v>
       </c>
     </row>
   </sheetData>
